--- a/2020/August/Reqisition of Tulip-2/August'2020/20.08.2020 Requisition of Tulip-2.xlsx
+++ b/2020/August/Reqisition of Tulip-2/August'2020/20.08.2020 Requisition of Tulip-2.xlsx
@@ -1139,7 +1139,7 @@
       <pane xSplit="4" ySplit="15" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1835,19 +1835,17 @@
       </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:74" s="3" customFormat="1" ht="15">
+    <row r="15" spans="1:74" s="3" customFormat="1" ht="15" hidden="1">
       <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="6">
         <v>896.23500000000001</v>
       </c>
-      <c r="C15" s="5">
-        <v>100</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>89623.5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>110</v>
@@ -2375,19 +2373,17 @@
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
     </row>
-    <row r="30" spans="1:74" customFormat="1" ht="15">
+    <row r="30" spans="1:74" customFormat="1" ht="15" hidden="1">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="6">
         <v>907.26</v>
       </c>
-      <c r="C30" s="5">
-        <v>40</v>
-      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="7">
         <f t="shared" si="0"/>
-        <v>36290.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>141</v>
@@ -2711,17 +2707,19 @@
       <c r="F36" s="40"/>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:74" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:74" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B37" s="6">
         <v>4044.61</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5">
+        <v>10</v>
+      </c>
       <c r="D37" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40446.1</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="40"/>
@@ -2992,19 +2990,17 @@
       <c r="F43" s="40"/>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:74" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:74" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B44" s="6">
         <v>5792.76</v>
       </c>
-      <c r="C44" s="5">
-        <v>10</v>
-      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="7">
         <f t="shared" si="0"/>
-        <v>57927.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>114</v>
@@ -3038,17 +3034,19 @@
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
     </row>
-    <row r="45" spans="1:74" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:74" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B45" s="6">
         <v>4866.5600000000004</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5">
+        <v>5</v>
+      </c>
       <c r="D45" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24332.800000000003</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>135</v>
@@ -3546,19 +3544,17 @@
       <c r="F67" s="40"/>
       <c r="G67" s="39"/>
     </row>
-    <row r="68" spans="1:74" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:74" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B68" s="6">
         <v>1072.675</v>
       </c>
-      <c r="C68" s="5">
-        <v>100</v>
-      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="7">
         <f t="shared" si="0"/>
-        <v>107267.5</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>71</v>
@@ -4407,19 +4403,17 @@
       <c r="BB95" s="23"/>
       <c r="BC95" s="23"/>
     </row>
-    <row r="96" spans="1:74" customFormat="1" ht="14.25" customHeight="1">
+    <row r="96" spans="1:74" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="6">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C96" s="5">
-        <v>20</v>
-      </c>
+      <c r="C96" s="5"/>
       <c r="D96" s="7">
         <f t="shared" si="2"/>
-        <v>23197.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>81</v>
@@ -4651,17 +4645,19 @@
       <c r="AF99" s="19"/>
       <c r="AG99" s="19"/>
     </row>
-    <row r="100" spans="1:55" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:55" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B100" s="6">
         <v>7593.04</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="5">
+        <v>5</v>
+      </c>
       <c r="D100" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37965.199999999997</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="40"/>
@@ -4788,11 +4784,11 @@
       <c r="B106" s="44"/>
       <c r="C106" s="27">
         <f>SUBTOTAL(9,C7:C105)</f>
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="D106" s="12">
         <f>SUBTOTAL(9,D7:D105)</f>
-        <v>314306.8</v>
+        <v>102744.1</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="40"/>
